--- a/Reasoning.xlsx
+++ b/Reasoning.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Coding Decoding" sheetId="1" r:id="rId1"/>
-    <sheet name="Question set" sheetId="2" r:id="rId2"/>
+    <sheet name="Coding Decoding Question set" sheetId="2" r:id="rId2"/>
+    <sheet name="Analogies Question set" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250">
   <si>
     <t>Various types on which Coding and Decoding are classified are (as per Bank Exams):</t>
   </si>
@@ -48,6 +49,1634 @@
   </si>
   <si>
     <t>5. ONNLIE</t>
+  </si>
+  <si>
+    <t>In certain code 'TIGER' is written as 'QDFHS'. How is 'FISH' written in that code?</t>
+  </si>
+  <si>
+    <t>1. GERH</t>
+  </si>
+  <si>
+    <t>2. GRHE</t>
+  </si>
+  <si>
+    <t>3. GREH</t>
+  </si>
+  <si>
+    <t>4. GHRE</t>
+  </si>
+  <si>
+    <t>5. GEHR</t>
+  </si>
+  <si>
+    <t>In certain code 'FROZEN' is written as 'OFAPSG'. Then how would 'MOLTEN' be written in that code?</t>
+  </si>
+  <si>
+    <t>1. OFPOMN</t>
+  </si>
+  <si>
+    <t>2. OFSMPN</t>
+  </si>
+  <si>
+    <t>3. OFUMPN</t>
+  </si>
+  <si>
+    <t>4. OFUNPM</t>
+  </si>
+  <si>
+    <t>5. OFUMON</t>
+  </si>
+  <si>
+    <t>In a certain code 'ROAR' is written as 'URDU'. How is 'URDU' written in that code?</t>
+  </si>
+  <si>
+    <t>1. V X D Q</t>
+  </si>
+  <si>
+    <t>2. XUGX</t>
+  </si>
+  <si>
+    <t>3. ROAR</t>
+  </si>
+  <si>
+    <t>4. VSOV</t>
+  </si>
+  <si>
+    <t>5. V Z C P</t>
+  </si>
+  <si>
+    <t>In a certain code 'LIMCA' is written as 'HJLDZ'. Which of the following words is written as 'IFWJBP'?</t>
+  </si>
+  <si>
+    <t>1. M E X I C O</t>
+  </si>
+  <si>
+    <t>2. MERCURY</t>
+  </si>
+  <si>
+    <t>3. JAPAN</t>
+  </si>
+  <si>
+    <t>4. MIDNIGHT</t>
+  </si>
+  <si>
+    <t>5. H O N D U S</t>
+  </si>
+  <si>
+    <t>In certain code 'HILTON' is written as 'I H T L N O'. How is 'BILLION' written in that code?</t>
+  </si>
+  <si>
+    <t>1. IBLLION</t>
+  </si>
+  <si>
+    <t>2. IBOILLN</t>
+  </si>
+  <si>
+    <t>3. IBLLOIN</t>
+  </si>
+  <si>
+    <t>4. IBLOILN</t>
+  </si>
+  <si>
+    <t>5. IBOLLIN</t>
+  </si>
+  <si>
+    <t>If in the English alphabet, every alternate letter from B onwards is written in small letters while others are written in capitals, then how will the 3rd day from Tuesday will be coded?</t>
+  </si>
+  <si>
+    <t>1. W e D N e S d A Y</t>
+  </si>
+  <si>
+    <t>2. W E d n E S d A Y</t>
+  </si>
+  <si>
+    <t>3. T H U R S d A Y</t>
+  </si>
+  <si>
+    <t>4. T h U r S d A Y</t>
+  </si>
+  <si>
+    <t>5. f r I d A Y</t>
+  </si>
+  <si>
+    <t>If the letters of the word 'CYCLINDER' are arranged alphabetically, then which letter would be farthest from the first letter of word?</t>
+  </si>
+  <si>
+    <t>1. N</t>
+  </si>
+  <si>
+    <t>2. E</t>
+  </si>
+  <si>
+    <t>3. Y</t>
+  </si>
+  <si>
+    <t>4. R</t>
+  </si>
+  <si>
+    <t>5. None of these</t>
+  </si>
+  <si>
+    <t>In a certain code 'CERTAIN' is coded as 'BFQUZJM'. How is 'MUNDANE' coded in that code?</t>
+  </si>
+  <si>
+    <t>1. LVMEZOD</t>
+  </si>
+  <si>
+    <t>2. NTCOMBF</t>
+  </si>
+  <si>
+    <t>3. NTOCNBF</t>
+  </si>
+  <si>
+    <t>4. LTMCZOF</t>
+  </si>
+  <si>
+    <t>In a certain code 'SEQUENCE' is coded as 'FDOFVRFT. How is 'CHILDREN' coded in that code?</t>
+  </si>
+  <si>
+    <t>1. OFESJMID</t>
+  </si>
+  <si>
+    <t>2. OFSEMJID</t>
+  </si>
+  <si>
+    <t>3. OFSEJIMD</t>
+  </si>
+  <si>
+    <t>4. OFSEJMID</t>
+  </si>
+  <si>
+    <t>In a certain code ‘RATIONAL’ is written as ‘TARNOILA’. How would ‘BRUTAL’ be written in that code?</t>
+  </si>
+  <si>
+    <t>1. UBRTAL</t>
+  </si>
+  <si>
+    <t>2. URBLAT</t>
+  </si>
+  <si>
+    <t>3. UBRATL</t>
+  </si>
+  <si>
+    <t>4. URBTAL</t>
+  </si>
+  <si>
+    <t>In a certain code ‘PURPOSE’ is written as ‘UPPRSOE’. How would ‘WATER’ be written in that code?</t>
+  </si>
+  <si>
+    <t>1. WATRE</t>
+  </si>
+  <si>
+    <t>2. AWTRE</t>
+  </si>
+  <si>
+    <t>3. AWETR</t>
+  </si>
+  <si>
+    <t>4. WEATR</t>
+  </si>
+  <si>
+    <t>5. TRWAE</t>
+  </si>
+  <si>
+    <t>In a certain code ‘FORGIVE’ is written as ‘DPPHGWC’. How would ‘REQUEST’ be written in that code?</t>
+  </si>
+  <si>
+    <t>1. PFOVCUR</t>
+  </si>
+  <si>
+    <t>2. TFOVCRU</t>
+  </si>
+  <si>
+    <t>3. POFCVUR</t>
+  </si>
+  <si>
+    <t>4. TOFCVUR</t>
+  </si>
+  <si>
+    <r>
+      <t>DIRECTIONS for questions 4 -8 : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The word ‘CALM’ is written according to some code, using the same code the word ‘YEAR’ may be written as one of the five alternatives given for the question. Find the correct alternative.</t>
+    </r>
+  </si>
+  <si>
+    <t>If CALM is written as HEOO , YEAR may be written as</t>
+  </si>
+  <si>
+    <t>1. DHDS</t>
+  </si>
+  <si>
+    <t>2. DTDH</t>
+  </si>
+  <si>
+    <t>3. DDHT</t>
+  </si>
+  <si>
+    <t>4. DIDT</t>
+  </si>
+  <si>
+    <t>5. DHSR</t>
+  </si>
+  <si>
+    <t>If CALM is written as XZON, YEAR may be written as</t>
+  </si>
+  <si>
+    <t>1. BVZI</t>
+  </si>
+  <si>
+    <t>2. BZVI</t>
+  </si>
+  <si>
+    <t>3. BVIZ</t>
+  </si>
+  <si>
+    <t>4. BVZJ</t>
+  </si>
+  <si>
+    <t>5. BVNI</t>
+  </si>
+  <si>
+    <t>If CALM is written as LKZB, YEAR may be written as</t>
+  </si>
+  <si>
+    <t>1. BQDX</t>
+  </si>
+  <si>
+    <t>2. QZNX</t>
+  </si>
+  <si>
+    <t>3. QZDX</t>
+  </si>
+  <si>
+    <t>4. QDBX</t>
+  </si>
+  <si>
+    <t>5. QBXD</t>
+  </si>
+  <si>
+    <t>If CALM is written as AYJK, YEAR may be written as</t>
+  </si>
+  <si>
+    <t>1. WCYP</t>
+  </si>
+  <si>
+    <t>2. WCXP</t>
+  </si>
+  <si>
+    <t>3. CWXP</t>
+  </si>
+  <si>
+    <t>4. PWXY</t>
+  </si>
+  <si>
+    <t>5. WCYN</t>
+  </si>
+  <si>
+    <t>If CALM written as ZDIP, YEAR may be written as</t>
+  </si>
+  <si>
+    <t>1. ZXHV</t>
+  </si>
+  <si>
+    <t>2. HVXZ</t>
+  </si>
+  <si>
+    <t>3. VHXU</t>
+  </si>
+  <si>
+    <t>4. VHWZ</t>
+  </si>
+  <si>
+    <t>5. VHWY</t>
+  </si>
+  <si>
+    <t>In a certain code ‘EASIER’ is written as TGKUCG. How is CUTTER written in that code?</t>
+  </si>
+  <si>
+    <t>1. TWVVGE</t>
+  </si>
+  <si>
+    <t>2. TGWWVE</t>
+  </si>
+  <si>
+    <t>3. TGVVWE</t>
+  </si>
+  <si>
+    <t>4. TVGVWE</t>
+  </si>
+  <si>
+    <t>5. TVVGWE</t>
+  </si>
+  <si>
+    <t>If ‘MEANDER’ is coded as ‘4515459’, then ‘MATHEMATICS’ is coded as</t>
+  </si>
+  <si>
+    <t>1. 6 7 2 5 0 6 2 3 0 7 6</t>
+  </si>
+  <si>
+    <t>2. 4 1 2 8 5 4 1 2 9 3 1</t>
+  </si>
+  <si>
+    <t>3. 4 5 0 3 8 4 0 1 8 5 4</t>
+  </si>
+  <si>
+    <t>4. 5 7 1 5 9 4 1 3 9 5 5</t>
+  </si>
+  <si>
+    <t>Here you can find various types of analogy questions with answers and explanations. We strongly recommend that you should first attempt to solve a problem on your own &amp; only then look at the solution given below.</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Which number is like the given set of numbers?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Answer: Option (a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Given set: (5, 19, 37)</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>We can see that all the numbers in the given set are prime numbers. 7 is also a prime number and therefore belong to the same group. Hence, the answer is (a).</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) 7</t>
+  </si>
+  <si>
+    <t>(b) 14</t>
+  </si>
+  <si>
+    <t>(c) 46</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Which set of numbers is like the set given below?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Clearly, in the given set, 1st number is twice the 2nd and the 2nd number is twice the 3rd number. A similar relationship exists between the numbers in the group mentioned here (40, 20, 10).</t>
+    </r>
+  </si>
+  <si>
+    <t>(60, 30, 15)</t>
+  </si>
+  <si>
+    <t>Hence, the answer is (c).</t>
+  </si>
+  <si>
+    <t>(a) (44, 22, 3)</t>
+  </si>
+  <si>
+    <t>(b) (46, 22, 12)</t>
+  </si>
+  <si>
+    <t>(c) (20, 10, 5)</t>
+  </si>
+  <si>
+    <t>(d) (42, 21, 10)</t>
+  </si>
+  <si>
+    <t>Directions for questions 3 to 10: In the questions mentioned below, there is a specific relation between 2 given letters/numbers on one side of : : and one letter/number is given on another side of:: while another letter/number is to be found from the given alternatives, having the same relation with this letter/number as the letters/numbers of the given pair bear. Choose the best alternative.</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28: 4:: 343 : ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Answer: Option (b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>(a) 23</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The relationship is 7x : x. So, the answer is 49.</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) 49</t>
+  </si>
+  <si>
+    <t>(c) 97</t>
+  </si>
+  <si>
+    <t>(d) 113</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16 : 26 : : 25 : ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Answer: Option (d)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>(a) 34</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The relationship is x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: (x + 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+ 1. So, the answer is 37.</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) 57</t>
+  </si>
+  <si>
+    <t>(c) 59</t>
+  </si>
+  <si>
+    <t>(d) 37</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> RJPL : NNLP : : YAWC : ?</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) SEUG</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The 1st &amp; 3rd letters of the 1st group are each moved four steps backward to obtain the corresponding letters of the 2nd group. The 2nd and 4th letters of the 1st group are each moved 4 steps forward to obtain the corresponding letters of the 2nd group.</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) VEUS</t>
+  </si>
+  <si>
+    <t>Similar relationship will exist between the 3rd and the 4th groups.</t>
+  </si>
+  <si>
+    <t>(c) UGSA</t>
+  </si>
+  <si>
+    <t>Hence, the answer is (d).</t>
+  </si>
+  <si>
+    <t>(d) UESG</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.6. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BH : JP : : EK : ?</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) PS</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Each letter of the 1st group is moved 8 steps forward to obtain the corresponding letter of the 2nd group. So, the correct answer is 'MS'.</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) MS</t>
+  </si>
+  <si>
+    <t>(c) KV</t>
+  </si>
+  <si>
+    <t>(d) ST</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.7. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BDF : GIK : : OQS : ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Answer: Option (c)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>(a) PUT</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Each letter of the 1st group is moved 5 steps forward to obtain the corresponding letter of the 2nd group. So, the answer is 'TVX'.</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) RVU</t>
+  </si>
+  <si>
+    <t>(c) TVX</t>
+  </si>
+  <si>
+    <r>
+      <t>Q8. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EFGH: AJCL :: PQRS : ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The 1st &amp; 3rd letters of the 1st group are moved four steps backward to obtain the corresponding letters of the 2nd group. The 2nd and 4th letters of the 1st group are each moved 4 steps forward to obtain the corresponding letters of the 2nd group.</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) LUNW</t>
+  </si>
+  <si>
+    <t>(d) TMVO</t>
+  </si>
+  <si>
+    <r>
+      <t>Q9.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> AI: IQ:: FG : ?</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) NS</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Each letter of the 1st group is moved 8 steps forward to obtain the corresponding letter of the 2nd group. So, the correct answer is 'NO'.</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) NO</t>
+  </si>
+  <si>
+    <t>(c) KR</t>
+  </si>
+  <si>
+    <t>(d) SB</t>
+  </si>
+  <si>
+    <r>
+      <t>Q. 10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> CEG : HJL :: PQR : ?</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) PUV</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Each letter of the 1st group is moved 5 steps forward to obtain the corresponding letter of the 2nd group. So, the answer is 'UVW'.</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) RVK</t>
+  </si>
+  <si>
+    <t>(c) UVW</t>
+  </si>
+  <si>
+    <t>(d) MWN</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Find a pair that is similar to: 10 : 900</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Option:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) 6 : 1296</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The relationship between 1st &amp; Second group is x: (x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>– x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>). So the correct answer is option (c).</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) 2 : 1030</t>
+  </si>
+  <si>
+    <t>(c) 8 : 448</t>
+  </si>
+  <si>
+    <t>(d) 9 : 81</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Choose a number that is similar to the numbers given in the set: (124, 331, 403)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Option:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) 242</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>In this set, all the numbers have their digit sum as 7.</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) 205</t>
+  </si>
+  <si>
+    <t>Out of these options, answer will be 205 as this is the only option with digit sum 7.</t>
+  </si>
+  <si>
+    <t>(c) 341</t>
+  </si>
+  <si>
+    <t>Hence, the correct answer is option (b).</t>
+  </si>
+  <si>
+    <t>(d) 432</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Choose a number that is similar to the numbers given in the set: (439, 725, 912)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Option:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) 815</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>In all the numbers, (1st digit + 3rd digit) - middle digit = 10.</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) 717</t>
+  </si>
+  <si>
+    <t>Thus, the correct answer is option (d).</t>
+  </si>
+  <si>
+    <t>(c) 327</t>
+  </si>
+  <si>
+    <t>(d) 219</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Find the missing term in the second group: - BAT: CDY:: BIG : ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Option:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) CLL</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The 1st, 2nd and 3rd letters of the 1st group are moved 1, 3 and 5 steps forward respectively to obtain the corresponding letters of the 2nd group. So, the correct answer is option (a).</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) DLN</t>
+  </si>
+  <si>
+    <t>(c) ANP</t>
+  </si>
+  <si>
+    <t>(d) CFP</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聽</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Find the missing term in the second group:- LOGIC : AGEMJ :: CLERK : ?</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) XPHBA</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The order of the letters of the 1st group is reversed &amp; each letter is moved 2 step backward to obtain the corresponding letters of the 2nd group. So, the correct answer is option (d).</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) BQKAB</t>
+  </si>
+  <si>
+    <t>(c) RPSRU</t>
+  </si>
+  <si>
+    <t>(d) IPCJA</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.6. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CHAIRS is related to AHCSRI in the same way as TABLES is related to?</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) BTASLE</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The first three letters and the last three letters of the first group are written in a reverse order to obtain the second group. So, the correct answer is option (d).</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) LEBSAT</t>
+  </si>
+  <si>
+    <t>(c) TASBLE</t>
+  </si>
+  <si>
+    <t>(d) BATSEL</t>
+  </si>
+  <si>
+    <r>
+      <t>Q.7. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Find a pair that is similar to :- 9 : 648</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) 6 : 180</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The relationship between 1st &amp; Second group is x : (x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>– x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) . So the correct answer is option (a).</t>
+    </r>
+  </si>
+  <si>
+    <t>(c) 6 : 316</t>
+  </si>
+  <si>
+    <r>
+      <t>Q8. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Choose a number that is similar to the numbers given in the set: (345, 456, 567)</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) 678</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>In all the numbers, the middle digit is the average of first and third digit.</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) 239</t>
+  </si>
+  <si>
+    <t>So the correct answer is option (a).</t>
+  </si>
+  <si>
+    <t>(c) 573</t>
+  </si>
+  <si>
+    <t>(d) 398</t>
+  </si>
+  <si>
+    <r>
+      <t>Q9.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> Choose a number that is similar to the numbers given in the set: (537, 845, 955)</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) 814</t>
+  </si>
+  <si>
+    <r>
+      <t>Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>In all the numbers, (1st digit + 3rd digit) - middle digit = 9.</t>
+    </r>
+  </si>
+  <si>
+    <t>(b) 712</t>
+  </si>
+  <si>
+    <t>(c) 377</t>
+  </si>
+  <si>
+    <t>(d) 669</t>
+  </si>
+  <si>
+    <r>
+      <t>Q. 10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t> Find the missing term in the second group: - CAT: DDY:: PIN : ?</t>
+    </r>
+  </si>
+  <si>
+    <t>(a) QLS</t>
   </si>
 </sst>
 </file>
@@ -60,13 +1689,39 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="roboto-regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="roboto-medium"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="roboto-regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="roboto-medium"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -129,21 +1784,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -159,9 +1799,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +1811,45 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,23 +1870,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,15 +1891,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,9 +1907,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,11 +1921,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="roboto-regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="roboto-medium"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -275,7 +1951,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +2017,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,31 +2065,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,127 +2125,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,30 +2142,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,15 +2169,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -537,6 +2180,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +2225,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -569,7 +2245,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,160 +2263,179 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,123 +2922,123 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" ht="12" customHeight="1"/>
     <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:14">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1365,58 +3060,1335 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="23.4285714285714" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="9.14285714285714" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" ht="15.75" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:1">
+      <c r="A10" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:1">
+      <c r="A18" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:1">
+      <c r="A24" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:1">
+      <c r="A30" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" spans="1:1">
+      <c r="A39" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" spans="1:1">
+      <c r="A48" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" spans="1:1">
+      <c r="A53" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" spans="1:1">
+      <c r="A58" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" spans="1:1">
+      <c r="A66" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" spans="1:1">
+      <c r="A73" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" spans="1:1">
+      <c r="A81" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" spans="1:1">
+      <c r="A90" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" spans="1:1">
+      <c r="A98" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" spans="1:1">
+      <c r="A102" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" spans="1:1">
+      <c r="A111" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" spans="1:1">
+      <c r="A116" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" spans="1:1">
+      <c r="A125" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" spans="1:1">
+      <c r="A132" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" spans="1:1">
+      <c r="A138" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:Z123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="N122" sqref="N122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" ht="51" customHeight="1" spans="1:26">
+      <c r="A17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" spans="1:13">
+      <c r="A42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" spans="1:13">
+      <c r="A47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" spans="1:13">
+      <c r="A53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" spans="1:13">
+      <c r="A59" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" spans="1:13">
+      <c r="A65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" spans="1:13">
+      <c r="A71" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" spans="1:13">
+      <c r="A77" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M77" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M78" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" spans="1:13">
+      <c r="A83" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" spans="1:13">
+      <c r="A89" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M89" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M90" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" spans="1:13">
+      <c r="A95" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M95" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M96" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" spans="1:13">
+      <c r="A101" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M101" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" spans="1:13">
+      <c r="A107" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M108" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" spans="1:13">
+      <c r="A113" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="M113" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M114" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" spans="1:13">
+      <c r="A119" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="M119" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M120" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:Z17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Reasoning.xlsx
+++ b/Reasoning.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13200" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Coding Decoding" sheetId="1" r:id="rId1"/>
     <sheet name="Coding Decoding Question set" sheetId="2" r:id="rId2"/>
     <sheet name="Analogies Question set" sheetId="3" r:id="rId3"/>
+    <sheet name="Country-capital-currency" sheetId="4" r:id="rId4"/>
+    <sheet name="State-state capital" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825">
   <si>
     <t>Various types on which Coding and Decoding are classified are (as per Bank Exams):</t>
   </si>
@@ -256,6 +258,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>DIRECTIONS for questions 4 -8 : </t>
     </r>
     <r>
@@ -398,6 +407,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.1. </t>
     </r>
     <r>
@@ -413,6 +429,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Answer: Option (a)</t>
     </r>
     <r>
@@ -430,6 +452,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -462,6 +490,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.2. </t>
     </r>
     <r>
@@ -477,6 +512,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -521,6 +562,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.3. </t>
     </r>
     <r>
@@ -536,6 +584,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Answer: Option (b)</t>
     </r>
     <r>
@@ -553,6 +607,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -585,6 +645,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.4. </t>
     </r>
     <r>
@@ -600,6 +667,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Answer: Option (d)</t>
     </r>
     <r>
@@ -617,6 +690,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -703,6 +782,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.5.</t>
     </r>
     <r>
@@ -721,6 +807,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -759,6 +851,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.6. </t>
     </r>
     <r>
@@ -777,6 +876,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -809,6 +914,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.7. </t>
     </r>
     <r>
@@ -824,6 +936,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Answer: Option (c)</t>
     </r>
     <r>
@@ -841,6 +959,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -870,6 +994,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q8. </t>
     </r>
     <r>
@@ -885,6 +1016,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -914,6 +1051,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q9.</t>
     </r>
     <r>
@@ -932,6 +1076,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -964,6 +1114,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q. 10</t>
     </r>
     <r>
@@ -982,6 +1139,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -1014,6 +1177,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.1. </t>
     </r>
     <r>
@@ -1029,6 +1199,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Option:</t>
     </r>
     <r>
@@ -1055,6 +1231,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -1132,6 +1314,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.2. </t>
     </r>
     <r>
@@ -1147,6 +1336,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Option:</t>
     </r>
     <r>
@@ -1173,6 +1368,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -1211,6 +1412,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.3. </t>
     </r>
     <r>
@@ -1226,6 +1434,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Option:</t>
     </r>
     <r>
@@ -1252,6 +1466,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -1287,6 +1507,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.4. </t>
     </r>
     <r>
@@ -1302,6 +1529,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Option:</t>
     </r>
     <r>
@@ -1328,6 +1561,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -1360,6 +1599,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.5.</t>
     </r>
     <r>
@@ -1388,6 +1634,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -1420,6 +1672,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.6. </t>
     </r>
     <r>
@@ -1438,6 +1697,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -1470,6 +1735,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q.7. </t>
     </r>
     <r>
@@ -1488,6 +1760,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -1559,6 +1837,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q8. </t>
     </r>
     <r>
@@ -1577,6 +1862,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -1612,6 +1903,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q9.</t>
     </r>
     <r>
@@ -1630,6 +1928,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Solution:</t>
     </r>
     <r>
@@ -1662,6 +1966,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="roboto-medium"/>
+        <charset val="134"/>
+      </rPr>
       <t>Q. 10</t>
     </r>
     <r>
@@ -1677,6 +1988,1760 @@
   </si>
   <si>
     <t>(a) QLS</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Capital(s)</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Primary Language(s)</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Kabul</t>
+  </si>
+  <si>
+    <t>Afghani</t>
+  </si>
+  <si>
+    <t>Dari Persian; Pashto</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Tirane</t>
+  </si>
+  <si>
+    <t>Lek</t>
+  </si>
+  <si>
+    <t>Albanian</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Algiers</t>
+  </si>
+  <si>
+    <t>Algerian Dinar</t>
+  </si>
+  <si>
+    <t>Arabic; Tamazight; French</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Andorra la Vella</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Catalan</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>Kwanza</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Antigua &amp; Barbuda</t>
+  </si>
+  <si>
+    <t>Saint John's</t>
+  </si>
+  <si>
+    <t>East Caribbean Dollar</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Argentine Peso</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Yerevan</t>
+  </si>
+  <si>
+    <t>Dram</t>
+  </si>
+  <si>
+    <t>Armenian</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>Australian Dollar</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Manat</t>
+  </si>
+  <si>
+    <t>Azerbaijani</t>
+  </si>
+  <si>
+    <t>The Bahamas</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>Bahamian Dollar</t>
+  </si>
+  <si>
+    <t>Bahrain </t>
+  </si>
+  <si>
+    <t>Manama</t>
+  </si>
+  <si>
+    <t>Bahraini Dinar</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Taka</t>
+  </si>
+  <si>
+    <t>Bangla</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+  </si>
+  <si>
+    <t>Barbadian Dollar</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Minsk</t>
+  </si>
+  <si>
+    <t>Belarusian Ruble</t>
+  </si>
+  <si>
+    <t>Belarusian; Russian</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Dutch; French; German</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Belmopan</t>
+  </si>
+  <si>
+    <t>Belize Dollar</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Porto-Novo</t>
+  </si>
+  <si>
+    <t>West African CFA Franc</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Thimphu</t>
+  </si>
+  <si>
+    <t>Ngultrum</t>
+  </si>
+  <si>
+    <t>Dzongkha</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>La Paz; Sucre</t>
+  </si>
+  <si>
+    <t>Boliviano</t>
+  </si>
+  <si>
+    <t>Spanish; Quechua; Aymara</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Sarajevo</t>
+  </si>
+  <si>
+    <t>Convertible Mark</t>
+  </si>
+  <si>
+    <t>Bosnian; Croatian; Serbian</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Gaborone</t>
+  </si>
+  <si>
+    <t>Pula</t>
+  </si>
+  <si>
+    <t>English; Tswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brasilia</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bandar Seri Begawan</t>
+  </si>
+  <si>
+    <t>Brunei Dollar</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Lev</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Ouagadougou</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Bujumbura</t>
+  </si>
+  <si>
+    <t>Burundi Franc</t>
+  </si>
+  <si>
+    <t>Kirundi; French</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>Riel</t>
+  </si>
+  <si>
+    <t>Khmer</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Yaounde</t>
+  </si>
+  <si>
+    <t>Central African CFA Franc</t>
+  </si>
+  <si>
+    <t>French; English</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>Canadian Dollar</t>
+  </si>
+  <si>
+    <t>English; French</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Praia</t>
+  </si>
+  <si>
+    <t>Cape Verdean Escudo</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Bangui</t>
+  </si>
+  <si>
+    <t>Sango; French</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>N'Djamena</t>
+  </si>
+  <si>
+    <t>French; Arabic</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Chilean Peso</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Chinese Yuan</t>
+  </si>
+  <si>
+    <t>Mandarin</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>Colombian Peso</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Moron</t>
+  </si>
+  <si>
+    <t>Comorian Franc</t>
+  </si>
+  <si>
+    <t>Comorian; Arabic; French</t>
+  </si>
+  <si>
+    <t>Democratic Republic </t>
+  </si>
+  <si>
+    <t>Kinshasa</t>
+  </si>
+  <si>
+    <t>Congolese Franc</t>
+  </si>
+  <si>
+    <t>Of the Congo</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Brazzaville</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>Colon</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire (Ivory Coast)</t>
+  </si>
+  <si>
+    <t>Yamoussoukro; Abidjan</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Zagreb</t>
+  </si>
+  <si>
+    <t>Croatian</t>
+  </si>
+  <si>
+    <t>Kuna</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Havana</t>
+  </si>
+  <si>
+    <t>Cuban Peso</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Nicosia</t>
+  </si>
+  <si>
+    <t>Greek; Turkish</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Czech Koruna</t>
+  </si>
+  <si>
+    <t>Czech; Slovak</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Danish Krone</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Djiboutian Franc</t>
+  </si>
+  <si>
+    <t>Arabic; French</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Rosesau</t>
+  </si>
+  <si>
+    <t>English; French; </t>
+  </si>
+  <si>
+    <t>Antillean Creole</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Dominican Peso</t>
+  </si>
+  <si>
+    <t>East Timor (Timor-Leste)</t>
+  </si>
+  <si>
+    <t>Dilli</t>
+  </si>
+  <si>
+    <t>United States Dollar</t>
+  </si>
+  <si>
+    <t>Tetum; Portuguese; </t>
+  </si>
+  <si>
+    <t>Iindonesian</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Egyptian Pound</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>San Salvador</t>
+  </si>
+  <si>
+    <t>Equitorial Guinea</t>
+  </si>
+  <si>
+    <t>Malabo</t>
+  </si>
+  <si>
+    <t>Spanish; French; Portuguese</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Asmara</t>
+  </si>
+  <si>
+    <t>Nakfa</t>
+  </si>
+  <si>
+    <t>Arabic; Tigrinya; English</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Tallinn</t>
+  </si>
+  <si>
+    <t>Estonian Kroon; Euro</t>
+  </si>
+  <si>
+    <t>Estonian</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Addis Ababa</t>
+  </si>
+  <si>
+    <t>Birr</t>
+  </si>
+  <si>
+    <t>Amharic</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Suva</t>
+  </si>
+  <si>
+    <t>Fijian Dollar</t>
+  </si>
+  <si>
+    <t>English; Bau Fijian; Hindi</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>Finnish; Swedish</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Euro; CFP Franc</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Libreville</t>
+  </si>
+  <si>
+    <t>The Gambia</t>
+  </si>
+  <si>
+    <t>Banjul</t>
+  </si>
+  <si>
+    <t>Dalasi</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Tbilisi</t>
+  </si>
+  <si>
+    <t>Lari</t>
+  </si>
+  <si>
+    <t>Georgian</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>Ghanaian Cedi</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>St. George's</t>
+  </si>
+  <si>
+    <t>English; Patois</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guatemala City</t>
+  </si>
+  <si>
+    <t>Quetzal</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Conakry</t>
+  </si>
+  <si>
+    <t>Guinean Franc</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Guyanese Dollar</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Port-au-Prince</t>
+  </si>
+  <si>
+    <t>Gourde</t>
+  </si>
+  <si>
+    <t>Haitian Creole; French</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Tegucigalpa</t>
+  </si>
+  <si>
+    <t>Lempira</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Forint</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Reykjavik</t>
+  </si>
+  <si>
+    <t>Icelandic Krona</t>
+  </si>
+  <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Indian Rupee</t>
+  </si>
+  <si>
+    <t>Hindi; English</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Rupiah</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Tehran</t>
+  </si>
+  <si>
+    <t>Rial</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>Iraqi Dinar</t>
+  </si>
+  <si>
+    <t>Arabic; Kurdish</t>
+  </si>
+  <si>
+    <t>Republic of Ireland</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>English; Irish</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
+  </si>
+  <si>
+    <t>Shekel</t>
+  </si>
+  <si>
+    <t>Hebrew; Arabic</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Jamaican Dollar</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Yen</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Amman</t>
+  </si>
+  <si>
+    <t>Jordanian Dinar</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Astana</t>
+  </si>
+  <si>
+    <t>Tenge</t>
+  </si>
+  <si>
+    <t>Kazakh; Russian </t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Kenyan Shilling</t>
+  </si>
+  <si>
+    <t>Swahili; English</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Tarawa Atoll</t>
+  </si>
+  <si>
+    <t>Kiribati Dollar</t>
+  </si>
+  <si>
+    <t>English; Gilbertese</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Pyongyang</t>
+  </si>
+  <si>
+    <t>North Korean Won</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>South Korean Won</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Pristina</t>
+  </si>
+  <si>
+    <t>Albanian; Serbian</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kuwait City</t>
+  </si>
+  <si>
+    <t>Kuwaiti Dollar</t>
+  </si>
+  <si>
+    <t>Arabic; English</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Bishkek</t>
+  </si>
+  <si>
+    <t>Som</t>
+  </si>
+  <si>
+    <t>Kyrgyz; Russian</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Vientiane</t>
+  </si>
+  <si>
+    <t>Kip</t>
+  </si>
+  <si>
+    <t>Lao (Laotian)</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>Lats</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Beirut</t>
+  </si>
+  <si>
+    <t>Lebanese Pound</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Maseru</t>
+  </si>
+  <si>
+    <t>Loti</t>
+  </si>
+  <si>
+    <t>Sesotho; English</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Monrovia</t>
+  </si>
+  <si>
+    <t>Liberian Dollar</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
+  </si>
+  <si>
+    <t>Libyan Dinar</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Vaduz</t>
+  </si>
+  <si>
+    <t>Swiss Franc</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Vilnius</t>
+  </si>
+  <si>
+    <t>Lithuanian Litas</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>German; French; </t>
+  </si>
+  <si>
+    <t>Luxembourgish</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Skopje</t>
+  </si>
+  <si>
+    <t>Macedonian Denar</t>
+  </si>
+  <si>
+    <t>Macedonian</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Antananarivo</t>
+  </si>
+  <si>
+    <t>Malagasy Ariary</t>
+  </si>
+  <si>
+    <t>Malagasy; French; English</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Lilongwe</t>
+  </si>
+  <si>
+    <t>Malawi Kwacha</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Ringgit</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Maldivian Rufiyaa</t>
+  </si>
+  <si>
+    <t>Dhivehi</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Bamako</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Valletta</t>
+  </si>
+  <si>
+    <t>Maltese; English</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Majuro</t>
+  </si>
+  <si>
+    <t>Marshallese; English</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Nouakchott</t>
+  </si>
+  <si>
+    <t>Ouguiya</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Port Louis</t>
+  </si>
+  <si>
+    <t>Mauritian Rupee</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Mexican Peso</t>
+  </si>
+  <si>
+    <t>Federal States of Micronesia</t>
+  </si>
+  <si>
+    <t>Palikir</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Chisinau</t>
+  </si>
+  <si>
+    <t>Moldovan Leu</t>
+  </si>
+  <si>
+    <t>Moldovan (Romanian)</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>French; Italian; English</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Ulaanbaatar</t>
+  </si>
+  <si>
+    <t>Togrog</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Podgorica</t>
+  </si>
+  <si>
+    <t>Montenegrin</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Rabat</t>
+  </si>
+  <si>
+    <t>Moroccan Dirham</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Maputo</t>
+  </si>
+  <si>
+    <t>Mozambican Metical</t>
+  </si>
+  <si>
+    <t>Myanmar (Burma)</t>
+  </si>
+  <si>
+    <t>Nypyidaw</t>
+  </si>
+  <si>
+    <t>Kyat</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Windhoek</t>
+  </si>
+  <si>
+    <t>Namibian Dollar</t>
+  </si>
+  <si>
+    <t>English; Afrikaans; German</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Yaren</t>
+  </si>
+  <si>
+    <t>English; Nauran</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Kathmandu</t>
+  </si>
+  <si>
+    <t>Nepalese Rupee</t>
+  </si>
+  <si>
+    <t>Nepali</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Amsterdam; The Hague</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>New Zealand Dollar</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Managua</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Niamey</t>
+  </si>
+  <si>
+    <t>West African CFA Franc </t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Abuja</t>
+  </si>
+  <si>
+    <t>Naira</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Norwegian Krone</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>Omani Rial</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>Pakistani Rupee</t>
+  </si>
+  <si>
+    <t>Urdu; English </t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Melekeok</t>
+  </si>
+  <si>
+    <t>English; Palauan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Panama City </t>
+  </si>
+  <si>
+    <t>Balboa</t>
+  </si>
+  <si>
+    <t>Papa New Guinea</t>
+  </si>
+  <si>
+    <t>Port Moresby Papa</t>
+  </si>
+  <si>
+    <t>Papa New Guinean Kina</t>
+  </si>
+  <si>
+    <t>English; Tok Pisin; </t>
+  </si>
+  <si>
+    <t>Hiri Motu</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Asuncion</t>
+  </si>
+  <si>
+    <t>Guarani</t>
+  </si>
+  <si>
+    <t>Spanish; Guarani</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Nuevo Sol</t>
+  </si>
+  <si>
+    <t>Phillipines</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>Phillipine Peso</t>
+  </si>
+  <si>
+    <t>Filipino; English</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>Zloty</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Doha</t>
+  </si>
+  <si>
+    <t>Qatari Riyal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Bucharest</t>
+  </si>
+  <si>
+    <t>Romanian Rupee</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Ruble</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Kigali</t>
+  </si>
+  <si>
+    <t>Rwandan Franc</t>
+  </si>
+  <si>
+    <t>Kinyarwanda; French; English</t>
+  </si>
+  <si>
+    <t>List of 29 States and Capitals of India</t>
+  </si>
+  <si>
+    <t>S.no</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Hyderabad (De jure - 2 June 2024) Amaravati (proposed)</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Itanagar</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Dispur</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Raipur</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Panaji</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Gandhinagar</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Chandigarh (shared with Punjab)</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Shimla</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <r>
+      <t>Srinagar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> (summer), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF2C39CE"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jammu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> (winter)</t>
+    </r>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Ranchi</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Bengaluru (formerly Bangalore)</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Thiruvananthapuram</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Bhopal</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Imphal</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Shillong</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Aizawl</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Kohima</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Gangtok</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Hyderabad (from June 2, 2014 – shared with Andhra Pradesh)</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Agartala</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Union Territory</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t>Port Blair</t>
+  </si>
+  <si>
+    <t>Dadar and Nagar Haveli</t>
+  </si>
+  <si>
+    <t>Silvassa</t>
+  </si>
+  <si>
+    <t>Daman and Diu</t>
+  </si>
+  <si>
+    <t>Daman</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>Kavaratti</t>
+  </si>
+  <si>
+    <t>Puducherry (Pondicherry)</t>
+  </si>
+  <si>
+    <t>Pondicherry</t>
   </si>
 </sst>
 </file>
@@ -1685,17 +3750,56 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="7" tint="-0.25"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="-0.5"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF2C39CE"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1778,7 +3882,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1800,7 +3904,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1811,22 +3939,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1845,19 +3957,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1869,8 +3972,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1884,7 +3988,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1893,29 +3997,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1942,7 +4046,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1951,7 +4055,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1963,31 +4109,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2005,13 +4169,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,7 +4181,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,113 +4241,107 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2160,10 +4360,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2187,38 +4419,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2231,21 +4442,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2263,179 +4463,245 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2922,123 +5188,123 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="15"/>
+    <col min="1" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" ht="12" customHeight="1"/>
     <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:14">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
     </row>
     <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3068,620 +5334,620 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.4285714285714" style="8" customWidth="1"/>
-    <col min="2" max="16384" width="9.14285714285714" style="8"/>
+    <col min="1" max="1" width="23.4285714285714" style="30" customWidth="1"/>
+    <col min="2" max="16384" width="9.14285714285714" style="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" ht="15.75" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="35" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" ht="15.75" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" ht="15.75" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:1">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" ht="15.75" spans="1:1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" ht="15.75" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" ht="15.75" spans="1:1">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" ht="15.75" spans="1:1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" ht="15.75" spans="1:1">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="57" ht="15.75" spans="1:1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="58" ht="15.75" spans="1:1">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="64" ht="15.75" spans="1:1">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="66" ht="15.75" spans="1:1">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="71" ht="15.75" spans="1:1">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="35" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="73" ht="15.75" spans="1:1">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="78" ht="15.75" spans="1:1">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="35" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="81" ht="15.75" spans="1:1">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="85" ht="15.75" spans="1:1">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="35" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="35" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="90" ht="15.75" spans="1:1">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="36" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="92" ht="15.75" spans="1:1">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="25" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="94" ht="15.75" spans="1:1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="98" ht="15.75" spans="1:1">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="36" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="101" ht="15.75" spans="1:1">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="102" ht="15.75" spans="1:1">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="36" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="35" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="108" ht="15.75" spans="1:1">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="35" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="35" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="111" ht="15.75" spans="1:1">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="36" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="35" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="115" ht="15.75" spans="1:1">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="24" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="116" ht="15.75" spans="1:1">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="36" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="35" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="35" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="122" ht="15.75" spans="1:1">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="35" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="35" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="125" ht="15.75" spans="1:1">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="36" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="35" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="129" ht="15.75" spans="1:1">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="35" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="132" ht="15.75" spans="1:1">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="136" ht="15.75" spans="1:1">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="138" ht="15.75" spans="1:1">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="36" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="35" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="35" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3696,7 +5962,7 @@
   <sheetPr/>
   <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
@@ -3706,681 +5972,681 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="29" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="29" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="26" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="26" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="26" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:13">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="29" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="27" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="1:1">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" ht="30" spans="1:1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="26" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:1">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="26" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="17" ht="51" customHeight="1" spans="1:26">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
     </row>
     <row r="18" ht="15.75" spans="1:13">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="29" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="26" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="26" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:13">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="29" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="26" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="26" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="26" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:13">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="29" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="29" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="27" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="27" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="26" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="1:13">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="29" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="26" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="26" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="42" ht="15.75" spans="1:13">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="29" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="M43" s="29" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="26" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="26" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:13">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="M47" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="M48" s="29" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="M49" s="27" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="26" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="26" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="53" ht="15.75" spans="1:13">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="M53" s="29" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="M54" s="29" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="26" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="26" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="26" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="59" ht="15.75" spans="1:13">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="M59" s="7" t="s">
+      <c r="M59" s="29" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="M60" s="29" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="26" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="26" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="26" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="65" ht="15.75" spans="1:13">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="M65" s="7" t="s">
+      <c r="M65" s="29" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="M66" s="7" t="s">
+      <c r="M66" s="29" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="26" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="26" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="26" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="71" ht="15.75" spans="1:13">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="M71" s="7" t="s">
+      <c r="M71" s="29" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="M72" s="7" t="s">
+      <c r="M72" s="29" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="M73" s="27" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="M74" s="4" t="s">
+      <c r="M74" s="27" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="26" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="77" ht="15.75" spans="1:13">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="M77" s="7" t="s">
+      <c r="M77" s="29" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="M78" s="7" t="s">
+      <c r="M78" s="29" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="M79" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="26" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="26" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="1:13">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="M83" s="7" t="s">
+      <c r="M83" s="29" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="M84" s="7" t="s">
+      <c r="M84" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="26" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="26" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="26" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="89" ht="15.75" spans="1:13">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="M89" s="7" t="s">
+      <c r="M89" s="29" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="M90" s="7" t="s">
+      <c r="M90" s="29" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="26" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="26" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="26" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="95" ht="15.75" spans="1:13">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="M95" s="7" t="s">
+      <c r="M95" s="29" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="M96" s="7" t="s">
+      <c r="M96" s="29" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="26" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="26" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="101" ht="15.75" spans="1:13">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="M101" s="7" t="s">
+      <c r="M101" s="29" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="M102" s="7" t="s">
+      <c r="M102" s="29" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="26" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="26" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="107" ht="15.75" spans="1:13">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="M107" s="7" t="s">
+      <c r="M107" s="29" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="M108" s="7" t="s">
+      <c r="M108" s="29" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="M109" s="4" t="s">
+      <c r="M109" s="27" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="26" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="26" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="113" ht="15.75" spans="1:13">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="M113" s="7" t="s">
+      <c r="M113" s="29" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="M114" s="7" t="s">
+      <c r="M114" s="29" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="M115" s="4" t="s">
+      <c r="M115" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="26" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="26" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="119" ht="15.75" spans="1:13">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="M119" s="7" t="s">
+      <c r="M119" s="29" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="M120" s="7" t="s">
+      <c r="M120" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="26" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="26" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="26" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4391,4 +6657,3854 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D152"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="27.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="30.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="39.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A1" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A2" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A3" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A4" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A5" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A6" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A7" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A8" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A9" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A10" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A11" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A12" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A13" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A14" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A15" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A16" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A17" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A18" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A19" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A20" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A21" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A22" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A23" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A24" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A25" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A26" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A27" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A28" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A29" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A30" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A31" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A32" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A33" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A34" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A35" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A36" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A37" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A38" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A39" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A40" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A41" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A42" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A43" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A44" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A45" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A46" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A47" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A48" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A49" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A50" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A51" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A53" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A54" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="55" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A56" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A57" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A58" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A59" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A60" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="61" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A61" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="62" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A62" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A63" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="64" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A64" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A65" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A66" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A67" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A68" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A69" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A70" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A71" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="72" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A72" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="73" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A73" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A74" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A75" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A76" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A77" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="78" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A78" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A79" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="80" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A80" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="81" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A81" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="82" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A82" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="83" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A83" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="84" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A84" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A85" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="86" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A86" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="87" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A87" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="88" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A88" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A89" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="90" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A90" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A91" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="92" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A92" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="93" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A93" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="94" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A94" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="95" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A95" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="96" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A96" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="97" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A97" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="98" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A98" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="99" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A99" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="100" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A100" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="101" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A101" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A102" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="103" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A103" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A104" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A105" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A106" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="107" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A107" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="108" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A108" s="21"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="23" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="109" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A109" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="110" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A110" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="111" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A111" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A112" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A113" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="114" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A114" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="115" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A115" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="116" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A116" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="117" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A117" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="118" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A118" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="119" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A119" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="120" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A120" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="121" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A121" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="122" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A122" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="123" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A123" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="124" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A124" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="125" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A125" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A126" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="127" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A127" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="128" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A128" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="129" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A129" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="130" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A130" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="131" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A131" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="132" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A132" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="133" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A133" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>690</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A134" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="135" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A135" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="136" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A136" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="137" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A137" s="21" t="s">
+        <v>701</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>702</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="138" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A138" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="139" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A139" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="140" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A140" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="141" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A141" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="142" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A142" s="21"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="23" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="143" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A143" s="21" t="s">
+        <v>719</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>720</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="144" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A144" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="145" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A145" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="146" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A146" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="147" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A147" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="148" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A148" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="149" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A149" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="150" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A150" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="151" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A151" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="152" s="3" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A152" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>749</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>750</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D40:D41"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AP42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="61.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:42">
+      <c r="A2" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="19"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="19"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="19"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="19"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="19"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="19"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="19"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="19"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="19"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="19"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="19"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="19"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="19"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="19"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="19"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="19"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="19"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="19"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="19"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>791</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="19"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="19"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="19"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="19"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="19"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="19"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A27" s="10">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="19"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="19"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="9"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="19"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="9"/>
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="19"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="20" customHeight="1" spans="1:42">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="19"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" ht="38" customHeight="1" spans="1:3">
+      <c r="A34" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" ht="25" customHeight="1" spans="1:3">
+      <c r="A35" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A36" s="17">
+        <v>1</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A37" s="17">
+        <v>2</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A38" s="17">
+        <v>3</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A39" s="17">
+        <v>4</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A40" s="17">
+        <v>5</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A41" s="17">
+        <v>6</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A42" s="17">
+        <v>7</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>824</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A32:C33"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="Andhra Pradesh" tooltip="https://www.mapsofindia.com/andhra-pradesh/"/>
+    <hyperlink ref="C3" r:id="rId2" display="Hyderabad (De jure - 2 June 2024) Amaravati (proposed)" tooltip="https://www.mapsofindia.com/maps/telangana/cities/hyderabad.html"/>
+    <hyperlink ref="B4" r:id="rId3" display="Arunachal Pradesh" tooltip="https://www.mapsofindia.com/arunachal-pradesh/"/>
+    <hyperlink ref="C4" r:id="rId4" display="Itanagar" tooltip="https://www.mapsofindia.com/maps/arunachalpradesh/itanagar-city-map.html"/>
+    <hyperlink ref="B5" r:id="rId5" display="Assam" tooltip="https://www.mapsofindia.com/assam/"/>
+    <hyperlink ref="C5" r:id="rId6" display="Dispur" tooltip="https://www.mapsofindia.com/maps/assam/dispur-city-map.html"/>
+    <hyperlink ref="B6" r:id="rId7" display="Bihar" tooltip="https://www.mapsofindia.com/bihar/"/>
+    <hyperlink ref="C6" r:id="rId8" display="Patna" tooltip="https://www.mapsofindia.com/maps/bihar/patna-city-map.htm"/>
+    <hyperlink ref="B7" r:id="rId9" display="Chhattisgarh" tooltip="https://www.mapsofindia.com/chhattisgarh/"/>
+    <hyperlink ref="C7" r:id="rId10" display="Raipur" tooltip="https://www.mapsofindia.com/maps/chhattisgarh/raipur.htm"/>
+    <hyperlink ref="B8" r:id="rId11" display="Goa" tooltip="https://www.mapsofindia.com/goa/"/>
+    <hyperlink ref="C8" r:id="rId12" display="Panaji" tooltip="https://www.mapsofindia.com/maps/goa/panajicity.htm"/>
+    <hyperlink ref="B9" r:id="rId13" display="Gujarat" tooltip="https://www.mapsofindia.com/gujarat/"/>
+    <hyperlink ref="C9" r:id="rId14" display="Gandhinagar" tooltip="https://www.mapsofindia.com/maps/gujarat/gandhinagar.htm"/>
+    <hyperlink ref="B10" r:id="rId15" display="Haryana" tooltip="https://www.mapsofindia.com/haryana/"/>
+    <hyperlink ref="C10" r:id="rId16" display="Chandigarh (shared with Punjab)" tooltip="https://www.mapsofindia.com/maps/chandigarh/chandigarh.htm"/>
+    <hyperlink ref="B11" r:id="rId17" display="Himachal Pradesh" tooltip="https://www.mapsofindia.com/himachal-pradesh/"/>
+    <hyperlink ref="C11" r:id="rId18" display="Shimla" tooltip="https://www.mapsofindia.com/maps/himachalpradesh/shimla.htm"/>
+    <hyperlink ref="B12" r:id="rId19" display="Jammu and Kashmir" tooltip="https://www.mapsofindia.com/jammu-kashmir/"/>
+    <hyperlink ref="B13" r:id="rId20" display="Jharkhand" tooltip="https://www.mapsofindia.com/jharkhand/"/>
+    <hyperlink ref="C13" r:id="rId21" display="Ranchi" tooltip="https://www.mapsofindia.com/maps/jharkhand/ranchi.htm"/>
+    <hyperlink ref="B14" r:id="rId22" display="Karnataka" tooltip="https://www.mapsofindia.com/karnataka/"/>
+    <hyperlink ref="C14" r:id="rId23" display="Bengaluru (formerly Bangalore)" tooltip="https://www.mapsofindia.com/maps/karnataka/bangalore-map.htm"/>
+    <hyperlink ref="B15" r:id="rId24" display="Kerala" tooltip="https://www.mapsofindia.com/kerala/"/>
+    <hyperlink ref="C15" r:id="rId25" display="Thiruvananthapuram" tooltip="https://www.mapsofindia.com/maps/kerala/thiruvananthapuram.htm"/>
+    <hyperlink ref="B16" r:id="rId26" display="Madhya Pradesh" tooltip="https://www.mapsofindia.com/madhya-pradesh/"/>
+    <hyperlink ref="C16" r:id="rId27" display="Bhopal" tooltip="https://www.mapsofindia.com/maps/madhyapradesh/bhopal.htm"/>
+    <hyperlink ref="B17" r:id="rId28" display="Maharashtra" tooltip="https://www.mapsofindia.com/maharashtra/"/>
+    <hyperlink ref="C17" r:id="rId29" display="Mumbai" tooltip="https://www.mapsofindia.com/maps/maharashtra/mumbai-map.htm"/>
+    <hyperlink ref="B18" r:id="rId30" display="Manipur" tooltip="https://www.mapsofindia.com/manipur/"/>
+    <hyperlink ref="C18" r:id="rId31" display="Imphal" tooltip="https://www.mapsofindia.com/maps/manipur/imphal.htm"/>
+    <hyperlink ref="B19" r:id="rId32" display="Meghalaya" tooltip="https://www.mapsofindia.com/meghalaya/"/>
+    <hyperlink ref="C19" r:id="rId33" display="Shillong" tooltip="https://www.mapsofindia.com/maps/meghalaya/shillong.htm"/>
+    <hyperlink ref="B20" r:id="rId34" display="Mizoram" tooltip="https://www.mapsofindia.com/mizoram/"/>
+    <hyperlink ref="C20" r:id="rId35" display="Aizawl" tooltip="https://www.mapsofindia.com/maps/mizoram/aizawl.html"/>
+    <hyperlink ref="B21" r:id="rId36" display="Nagaland" tooltip="https://www.mapsofindia.com/nagaland/"/>
+    <hyperlink ref="C21" r:id="rId37" display="Kohima" tooltip="https://www.mapsofindia.com/maps/nagaland/kohima-city.html"/>
+    <hyperlink ref="B22" r:id="rId38" display="Odisha" tooltip="https://www.mapsofindia.com/orissa/"/>
+    <hyperlink ref="C22" r:id="rId39" display="Bhubaneswar" tooltip="https://www.mapsofindia.com/maps/orissa/bhubaneshwar.htm"/>
+    <hyperlink ref="B23" r:id="rId40" display="Punjab" tooltip="https://www.mapsofindia.com/punjab/"/>
+    <hyperlink ref="C23" r:id="rId16" display="Chandigarh" tooltip="https://www.mapsofindia.com/maps/chandigarh/chandigarh.htm"/>
+    <hyperlink ref="B24" r:id="rId41" display="Rajasthan" tooltip="https://www.mapsofindia.com/rajasthan/"/>
+    <hyperlink ref="C24" r:id="rId42" display="Jaipur" tooltip="https://www.mapsofindia.com/maps/rajasthan/jaipurcity.htm"/>
+    <hyperlink ref="B25" r:id="rId43" display="Sikkim" tooltip="https://www.mapsofindia.com/sikkim/"/>
+    <hyperlink ref="C25" r:id="rId44" display="Gangtok" tooltip="https://www.mapsofindia.com/maps/sikkim/gangtok-city-map.html"/>
+    <hyperlink ref="B26" r:id="rId45" display="Tamil Nadu" tooltip="https://www.mapsofindia.com/tamilnadu/"/>
+    <hyperlink ref="C26" r:id="rId46" display="Chennai" tooltip="https://www.mapsofindia.com/maps/tamilnadu/chennai-map.htm"/>
+    <hyperlink ref="B27" r:id="rId47" display="Telangana" tooltip="https://www.mapsofindia.com/maps/telangana/"/>
+    <hyperlink ref="C27" r:id="rId2" display="Hyderabad (from June 2, 2014 – shared with Andhra Pradesh)" tooltip="https://www.mapsofindia.com/maps/telangana/cities/hyderabad.html"/>
+    <hyperlink ref="B28" r:id="rId48" display="Tripura" tooltip="https://www.mapsofindia.com/tripura/"/>
+    <hyperlink ref="C28" r:id="rId49" display="Agartala" tooltip="https://www.mapsofindia.com/maps/tripura/agartala.html"/>
+    <hyperlink ref="B29" r:id="rId50" display="Uttar Pradesh" tooltip="https://www.mapsofindia.com/uttar-pradesh/"/>
+    <hyperlink ref="C29" r:id="rId51" display="Lucknow" tooltip="https://www.mapsofindia.com/maps/uttarpradesh/lucknow-city-map.htm"/>
+    <hyperlink ref="B30" r:id="rId52" display="Uttarakhand" tooltip="https://www.mapsofindia.com/uttarakhand/"/>
+    <hyperlink ref="C30" r:id="rId53" display="Dehradun" tooltip="https://www.mapsofindia.com/maps/uttaranchal/dehradun.htm"/>
+    <hyperlink ref="B31" r:id="rId54" display="West Bengal" tooltip="https://www.mapsofindia.com/west-bengal/"/>
+    <hyperlink ref="C31" r:id="rId55" display="Kolkata" tooltip="https://www.mapsofindia.com/maps/westbengal/kolkata-city-map.htm"/>
+    <hyperlink ref="B36" r:id="rId56" display="Andaman and Nicobar Islands" tooltip="https://www.mapsofindia.com/andaman-nicobar-islands/"/>
+    <hyperlink ref="C36" r:id="rId57" display="Port Blair" tooltip="https://www.mapsofindia.com/maps/andamanandnicobar/portblair.htm"/>
+    <hyperlink ref="B37" r:id="rId58" display="Chandigarh" tooltip="https://www.mapsofindia.com/chandigarh/"/>
+    <hyperlink ref="C37" r:id="rId16" display="Chandigarh" tooltip="https://www.mapsofindia.com/maps/chandigarh/chandigarh.htm"/>
+    <hyperlink ref="B38" r:id="rId59" display="Dadar and Nagar Haveli" tooltip="https://www.mapsofindia.com/dadra-nagar-haveli/"/>
+    <hyperlink ref="C38" r:id="rId60" display="Silvassa" tooltip="https://www.mapsofindia.com/maps/dadraandnagarhaveli/silvassa-city.html"/>
+    <hyperlink ref="B39" r:id="rId61" display="Daman and Diu" tooltip="https://www.mapsofindia.com/daman-diu/"/>
+    <hyperlink ref="C39" r:id="rId62" display="Daman" tooltip="https://www.mapsofindia.com/maps/damananddiu/"/>
+    <hyperlink ref="B40" r:id="rId63" display="Delhi" tooltip="https://www.mapsofindia.com/delhi/"/>
+    <hyperlink ref="C40" r:id="rId64" display="Delhi" tooltip="https://www.mapsofindia.com/maps/delhi/"/>
+    <hyperlink ref="B41" r:id="rId65" display="Lakshadweep" tooltip="https://www.mapsofindia.com/lakshadweep/"/>
+    <hyperlink ref="C41" r:id="rId66" display="Kavaratti" tooltip="https://www.mapsofindia.com/maps/lakshadweep/kavaratti.html"/>
+    <hyperlink ref="B42" r:id="rId67" display="Puducherry (Pondicherry)" tooltip="https://www.mapsofindia.com/pondicherry/"/>
+    <hyperlink ref="C42" r:id="rId68" display="Pondicherry" tooltip="https://www.mapsofindia.com/maps/pondicherry/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>